--- a/biology/Zoologie/Cicadetta/Cicadetta.xlsx
+++ b/biology/Zoologie/Cicadetta/Cicadetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadetta est un genre d'insectes hémiptères de la famille des Cicadidae (cigales), de la sous-famille des Cicadettinae.
 Ce sont des cigales annuelles de petite taille, à la vaste répartition (Eurasie, Afrique, Amérique du Nord), mais certaines espèces vivent en endémiques dans des régions restreintes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 mars 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 mars 2018) :
 Cicadetta aaede (Walker, 1850)
 Cicadetta abdominalis (Distant, 1892)
 Cicadetta adelaida (Ashton, 1914)
@@ -591,7 +605,7 @@
 Cicadetta viridis (Ashton, 1912)
 Cicadetta warburtoni (Distant, 1882)
 Cicadetta waterhousei (Distant, 1905)
-Selon Fauna Europaea                                      (28 novembre 2021)[2] :
+Selon Fauna Europaea                                      (28 novembre 2021) :
 Cicadetta albipennis
 Cicadetta caucasica
 Cicadetta concinna
@@ -605,7 +619,7 @@
 Cicadetta petryi
 Cicadetta podolica
 Cicadetta undulata
-Selon ITIS      (17 mars 2018)[3] :
+Selon ITIS      (17 mars 2018) :
 Cicadetta calliope (Walker, 1850)
 Cicadetta camerona (Davis, 1920)
 Cicadetta kansa (Davis, 1919)
